--- a/nr-prepare-release-1.1.0/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/nr-prepare-release-1.1.0/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:58:26+00:00</t>
+    <t>2024-11-13T10:02:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-prepare-release-1.1.0/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/nr-prepare-release-1.1.0/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4931" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4931" uniqueCount="640">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T10:02:18+00:00</t>
+    <t>2024-11-13T13:22:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -761,11 +761,11 @@
     <t>Often, specific identities are assigned for the agent.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:system}
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>Slice based on the identifier.system pattern</t>
+    <t>Slice based on the identifier.system value</t>
   </si>
   <si>
     <t>PRD-7 (or XCN.1)</t>
@@ -1201,10 +1201,6 @@
   </si>
   <si>
     <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-role-exercice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
   </si>
   <si>
     <t>PRD-1 / STF-18  / PRA-3  / PRT-4  / ROL-3 / ORC-12 / OBR-16 / PV1-7 / PV1-8 / PV1-9 / PV1-17</t>
@@ -8547,7 +8543,7 @@
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>382</v>
+        <v>148</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
@@ -8575,10 +8571,10 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>343</v>
@@ -8589,13 +8585,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>78</v>
@@ -8620,7 +8616,7 @@
         <v>264</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>378</v>
@@ -8658,7 +8654,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8691,13 +8687,13 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>343</v>
@@ -8708,13 +8704,13 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>78</v>
@@ -8739,7 +8735,7 @@
         <v>264</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>378</v>
@@ -8777,7 +8773,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8810,13 +8806,13 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>343</v>
@@ -8827,13 +8823,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>78</v>
@@ -8858,7 +8854,7 @@
         <v>264</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>378</v>
@@ -8896,7 +8892,7 @@
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8929,13 +8925,13 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>343</v>
@@ -8946,13 +8942,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>78</v>
@@ -8977,7 +8973,7 @@
         <v>264</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>378</v>
@@ -9015,7 +9011,7 @@
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -9048,13 +9044,13 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>343</v>
@@ -9065,13 +9061,13 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>78</v>
@@ -9096,7 +9092,7 @@
         <v>264</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>378</v>
@@ -9134,7 +9130,7 @@
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -9167,13 +9163,13 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>343</v>
@@ -9184,13 +9180,13 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
@@ -9215,7 +9211,7 @@
         <v>264</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>378</v>
@@ -9253,7 +9249,7 @@
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -9286,13 +9282,13 @@
         <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>343</v>
@@ -9303,13 +9299,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>376</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>78</v>
@@ -9334,7 +9330,7 @@
         <v>264</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>378</v>
@@ -9372,7 +9368,7 @@
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -9405,13 +9401,13 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>343</v>
@@ -9422,10 +9418,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9451,10 +9447,10 @@
         <v>264</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9485,7 +9481,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -9503,7 +9499,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9521,13 +9517,13 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -9535,10 +9531,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9561,13 +9557,13 @@
         <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9618,7 +9614,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9639,21 +9635,21 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>433</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9676,13 +9672,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9733,7 +9729,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9751,10 +9747,10 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9765,10 +9761,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9791,17 +9787,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9838,17 +9834,17 @@
         <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9860,19 +9856,19 @@
         <v>212</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9880,13 +9876,13 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C65" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>78</v>
@@ -9908,17 +9904,17 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L65" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="M65" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9967,7 +9963,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9979,19 +9975,19 @@
         <v>212</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -9999,10 +9995,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10114,10 +10110,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10231,13 +10227,13 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>78</v>
@@ -10259,13 +10255,13 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10348,10 +10344,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10463,10 +10459,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10578,10 +10574,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10607,13 +10603,13 @@
         <v>137</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10621,49 +10617,49 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>90</v>
@@ -10695,10 +10691,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10724,10 +10720,10 @@
         <v>157</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10739,7 +10735,7 @@
         <v>78</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>78</v>
@@ -10758,25 +10754,25 @@
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF72" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10808,13 +10804,13 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C73" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>78</v>
@@ -10836,13 +10832,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10925,10 +10921,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11040,10 +11036,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11157,13 +11153,13 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C76" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>78</v>
@@ -11188,7 +11184,7 @@
         <v>111</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>205</v>
@@ -11274,10 +11270,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11389,10 +11385,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11504,10 +11500,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11533,13 +11529,13 @@
         <v>137</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11547,7 +11543,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>78</v>
@@ -11589,7 +11585,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>90</v>
@@ -11621,10 +11617,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B80" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11650,10 +11646,10 @@
         <v>264</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11684,7 +11680,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -11702,7 +11698,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11734,13 +11730,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C81" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>78</v>
@@ -11765,7 +11761,7 @@
         <v>111</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>205</v>
@@ -11851,10 +11847,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11966,10 +11962,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12081,10 +12077,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12110,13 +12106,13 @@
         <v>137</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12124,7 +12120,7 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>78</v>
@@ -12166,7 +12162,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>90</v>
@@ -12198,10 +12194,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12227,10 +12223,10 @@
         <v>104</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12281,7 +12277,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12313,13 +12309,13 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C86" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>78</v>
@@ -12430,10 +12426,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12545,10 +12541,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12660,10 +12656,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12689,13 +12685,13 @@
         <v>137</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12703,7 +12699,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>78</v>
@@ -12745,7 +12741,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>90</v>
@@ -12777,10 +12773,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12806,10 +12802,10 @@
         <v>104</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12860,7 +12856,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12892,13 +12888,13 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C91" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>78</v>
@@ -12923,7 +12919,7 @@
         <v>111</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>205</v>
@@ -13009,10 +13005,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13124,10 +13120,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13239,10 +13235,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13268,13 +13264,13 @@
         <v>137</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13282,7 +13278,7 @@
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>78</v>
@@ -13324,7 +13320,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>90</v>
@@ -13356,10 +13352,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13385,10 +13381,10 @@
         <v>104</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13439,7 +13435,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13471,13 +13467,13 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C96" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>78</v>
@@ -13588,10 +13584,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13703,10 +13699,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13818,10 +13814,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13847,13 +13843,13 @@
         <v>137</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13861,7 +13857,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>78</v>
@@ -13903,7 +13899,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>90</v>
@@ -13935,10 +13931,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13964,10 +13960,10 @@
         <v>104</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14018,7 +14014,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14050,13 +14046,13 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C101" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>78</v>
@@ -14081,7 +14077,7 @@
         <v>111</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>205</v>
@@ -14167,10 +14163,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14282,10 +14278,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14397,10 +14393,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14426,13 +14422,13 @@
         <v>137</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14440,7 +14436,7 @@
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S104" t="s" s="2">
         <v>78</v>
@@ -14482,7 +14478,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>90</v>
@@ -14514,10 +14510,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14543,10 +14539,10 @@
         <v>328</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14597,7 +14593,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14629,13 +14625,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C106" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>78</v>
@@ -14660,7 +14656,7 @@
         <v>111</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>205</v>
@@ -14746,10 +14742,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14861,10 +14857,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14976,10 +14972,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15005,13 +15001,13 @@
         <v>137</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15019,7 +15015,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>78</v>
@@ -15061,7 +15057,7 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>90</v>
@@ -15093,10 +15089,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15122,10 +15118,10 @@
         <v>328</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15176,7 +15172,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15208,10 +15204,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15237,13 +15233,13 @@
         <v>137</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15251,7 +15247,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>78</v>
@@ -15293,7 +15289,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>90</v>
@@ -15325,10 +15321,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15351,13 +15347,13 @@
         <v>78</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15408,7 +15404,7 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -15440,10 +15436,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B113" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15469,10 +15465,10 @@
         <v>179</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15484,7 +15480,7 @@
         <v>78</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>78</v>
@@ -15502,37 +15498,37 @@
         <v>257</v>
       </c>
       <c r="Y113" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="Z113" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="Z113" t="s" s="2">
+      <c r="AA113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF113" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="AA113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF113" t="s" s="2">
+      <c r="AG113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI113" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>102</v>
@@ -15541,13 +15537,13 @@
         <v>78</v>
       </c>
       <c r="AL113" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AM113" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AM113" t="s" s="2">
+      <c r="AN113" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>78</v>
@@ -15555,10 +15551,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B114" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15584,16 +15580,16 @@
         <v>104</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>78</v>
@@ -15642,7 +15638,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15660,10 +15656,10 @@
         <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AM114" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>294</v>
@@ -15674,10 +15670,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B115" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15703,16 +15699,16 @@
         <v>179</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="N115" t="s" s="2">
+      <c r="O115" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>78</v>
@@ -15740,28 +15736,28 @@
         <v>257</v>
       </c>
       <c r="Y115" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="Z115" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="Z115" t="s" s="2">
+      <c r="AA115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF115" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -15779,13 +15775,13 @@
         <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM115" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="AM115" t="s" s="2">
+      <c r="AN115" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>78</v>
@@ -15793,10 +15789,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B116" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15819,16 +15815,16 @@
         <v>91</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>581</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="M116" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15878,7 +15874,7 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -15910,10 +15906,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B117" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15939,10 +15935,10 @@
         <v>297</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15993,7 +15989,7 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16014,7 +16010,7 @@
         <v>202</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>303</v>
@@ -16025,10 +16021,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16051,16 +16047,16 @@
         <v>78</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16110,7 +16106,7 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
@@ -16131,7 +16127,7 @@
         <v>78</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>78</v>
@@ -16142,10 +16138,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16257,10 +16253,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16374,14 +16370,14 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16403,10 +16399,10 @@
         <v>111</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>114</v>
@@ -16461,7 +16457,7 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16493,10 +16489,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16522,10 +16518,10 @@
         <v>179</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -16555,11 +16551,11 @@
         <v>257</v>
       </c>
       <c r="Y122" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="Z122" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="Z122" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="AA122" t="s" s="2">
         <v>78</v>
       </c>
@@ -16576,7 +16572,7 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16597,7 +16593,7 @@
         <v>78</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>78</v>
@@ -16608,10 +16604,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16637,10 +16633,10 @@
         <v>328</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -16691,7 +16687,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16712,7 +16708,7 @@
         <v>78</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>78</v>
@@ -16723,10 +16719,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16749,16 +16745,16 @@
         <v>78</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -16808,7 +16804,7 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -16829,7 +16825,7 @@
         <v>78</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>78</v>
@@ -16840,10 +16836,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16866,16 +16862,16 @@
         <v>78</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M125" t="s" s="2">
-        <v>620</v>
-      </c>
       <c r="N125" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -16925,7 +16921,7 @@
         <v>78</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -16946,7 +16942,7 @@
         <v>78</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>78</v>
@@ -16957,10 +16953,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16983,13 +16979,13 @@
         <v>78</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17040,7 +17036,7 @@
         <v>78</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -17061,7 +17057,7 @@
         <v>78</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>78</v>
@@ -17072,10 +17068,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17187,10 +17183,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17304,14 +17300,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -17333,10 +17329,10 @@
         <v>111</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>114</v>
@@ -17391,7 +17387,7 @@
         <v>78</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17423,10 +17419,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17452,10 +17448,10 @@
         <v>104</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -17506,7 +17502,7 @@
         <v>78</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>90</v>
@@ -17538,10 +17534,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17567,10 +17563,10 @@
         <v>297</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -17621,7 +17617,7 @@
         <v>78</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -17642,7 +17638,7 @@
         <v>78</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>78</v>
@@ -17653,10 +17649,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17682,10 +17678,10 @@
         <v>104</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -17736,7 +17732,7 @@
         <v>78</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -17757,7 +17753,7 @@
         <v>78</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>78</v>
@@ -17768,10 +17764,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17794,17 +17790,17 @@
         <v>78</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>637</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>78</v>
@@ -17853,7 +17849,7 @@
         <v>78</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
